--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Shashidhar.Guddad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF0A619-F250-4906-A8D8-4ECE949413D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5FB7FF-156D-4852-8247-8CFBA478E6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,12 +643,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,13 +665,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -688,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -711,13 +711,13 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -734,13 +734,13 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -757,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -780,16 +780,16 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -800,9 +800,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -968,7 +968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -526,7 +526,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -480,7 +480,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>
@@ -502,9 +502,6 @@
       <c r="B5" t="str">
         <v>To check if we can create policy</v>
       </c>
-      <c r="C5" t="str">
-        <v>yes</v>
-      </c>
       <c r="D5" t="str">
         <v>1</v>
       </c>
@@ -524,9 +521,6 @@
       </c>
       <c r="B6" t="str">
         <v>To Check invalid driver details</v>
-      </c>
-      <c r="C6" t="str">
-        <v>yes</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Shashidhar.Guddad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Shashidhar.Guddad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B2272C-9528-4873-810C-5D57744B049D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C41EEA-6E1B-4C8D-8BE3-43051EB04803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,171 +646,171 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
         <v>12</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
         <v>12</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
         <v>18</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
         <v>18</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
         <v>18</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:H6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -821,12 +821,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -992,7 +992,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -437,7 +437,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -463,7 +463,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -437,7 +437,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -463,7 +463,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -515,7 +515,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -437,7 +437,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -463,7 +463,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -489,7 +489,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
@@ -541,7 +541,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Shashidhar.Guddad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D00C1-2871-42B6-AD94-7E37E8143B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE9A58C-8733-4156-88B8-9F7ED7F754E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
   <si>
     <t>testname</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
 </sst>
 </file>
@@ -643,174 +640,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:H6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -480,7 +480,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -526,7 +526,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -434,7 +434,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -480,7 +480,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata28.xlsx
+++ b/src/assets/js/Testdata28.xlsx
@@ -457,7 +457,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
